--- a/ig/sd-creation-de-codeSystems-StudyPopulation-RegulationCode-ReglementationPrecision/ValueSet-eclaire-type-contact-vs.xlsx
+++ b/ig/sd-creation-de-codeSystems-StudyPopulation-RegulationCode-ReglementationPrecision/ValueSet-eclaire-type-contact-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-02T10:12:49+00:00</t>
+    <t>2023-10-13T11:58:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-creation-de-codeSystems-StudyPopulation-RegulationCode-ReglementationPrecision/ValueSet-eclaire-type-contact-vs.xlsx
+++ b/ig/sd-creation-de-codeSystems-StudyPopulation-RegulationCode-ReglementationPrecision/ValueSet-eclaire-type-contact-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-13T11:58:38+00:00</t>
+    <t>2023-10-14T08:48:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
